--- a/biology/Biologie cellulaire et moléculaire/Janet_Rossant/Janet_Rossant.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Janet_Rossant/Janet_Rossant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Janet Rossant , née le 13 juillet 1950, est une biologiste du développement. Elle est connue pour ses travaux sur le rôle des gènes dans le développement de l'embryon. 
-Elle est directrice de recherche au département de biologie du développement et cellules souches à l'Hospital for Sick Children à Toronto et professeur de génétique moléculaire à l'Université de Toronto. Elle a été nommée membre de la Royal Society de Londres en 2000 et compagnon de l'Ordre du Canada en 2015[1].
+Elle est directrice de recherche au département de biologie du développement et cellules souches à l'Hospital for Sick Children à Toronto et professeur de génétique moléculaire à l'Université de Toronto. Elle a été nommée membre de la Royal Society de Londres en 2000 et compagnon de l'Ordre du Canada en 2015.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1972, Janet Rossant obtient une licence en zoologie mention très bien à l'Université d'Oxford.
 En 1976, elle a achevé son doctorat sur le développement des embryons de mammifères au Darwin College à l'Université de Cambridge.
@@ -546,7 +560,9 @@
           <t>Récompenses et Honneurs[1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1993 : Membre de la Société royale du Canada
 1998 : Médaille McLaughlin
